--- a/pred_ohlcv/54_21/2019-10-29 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 WTC ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>8749.07600290154</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>10564.21448108729</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>10181.39198108728</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>11165.01838108728</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>10949.63458108728</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>10934.46898108728</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>10196.31288108728</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>10196.31288108728</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>13765.15788108728</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>14689.20148108728</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>12853.02628108728</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -834,7 +834,7 @@
         <v>13047.40968108728</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>10665.65419775395</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>7002.601806087282</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>4719.901713490827</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>4719.901713490827</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>4336.096213490827</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-220.3349865091734</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>2215.252413490827</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>2268.592313490827</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>2547.938813490827</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>2295.135413490827</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>3082.950513490827</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>2251.812113490827</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>5495.656013490827</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>2842.195313490828</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>1971.204913490827</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>959.5541134908274</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>1959.354842062256</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-6872.762557937744</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-6871.762557937744</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-5871.762557937744</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-5942.876257937744</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-6840.099757937744</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-6942.451857937744</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-6942.451857937744</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-4076.149957937744</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-4077.149957937744</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-4078.149957937744</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-4039.116257937744</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-4040.116257937744</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-4046.104257937744</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-4046.104257937744</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-4398.350557937743</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-4410.000557937743</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-4417.880557937743</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-15976.68826841809</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-14942.81826841809</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-14711.15716841809</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-16119.07336841809</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-15066.81076841809</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-15066.81076841809</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-13902.39336841809</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-14647.77706841809</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-14647.77706841809</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-13653.71706841809</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-14197.71706841809</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-15579.80446841809</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-35070.78936841809</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-34931.14756841809</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-34542.73026841809</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-34542.73026841809</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-34938.50426841809</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-34248.63646841809</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-34210.62016841809</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-33977.95016841809</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-34314.35016841809</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-34335.51556841809</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-34277.41556841809</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-33975.24766841809</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-34026.46646841809</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-33944.71716841809</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-33948.55176841809</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-42894.67386841809</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-42680.12406841809</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-43107.02546841809</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-43107.02546841809</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-42307.02546841809</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-42329.31166841809</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-42323.51166841809</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-41690.32346841809</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-41690.32346841809</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-39923.89556841809</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-39179.29616841809</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-38572.66896841809</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-37991.45876841809</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-37563.84186841809</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-37527.54066841809</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-39267.66266841809</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-39243.99036841809</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-39684.38086841809</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-37729.38086841809</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-37685.27096841809</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-39347.08676841808</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-38049.26056841808</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-38049.26056841808</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-38049.26056841808</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-38015.56056841808</v>
       </c>
       <c r="H343">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-39408.44206841809</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-40351.44206841809</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-38338.34656841808</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-38338.34656841808</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-40038.63186841809</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-40056.84396841808</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-41082.51766841808</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-39932.47386841808</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-40984.15386841809</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-40915.72896841809</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-38142.24016841809</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-36505.68596841809</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-36505.68596841809</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-36392.38596841809</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-38265.36086841809</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-39373.74826841809</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-40722.15146841809</v>
       </c>
       <c r="H360">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-40758.72886841809</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-40032.76896841809</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-40032.76896841809</v>
       </c>
       <c r="H363">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-40032.76896841809</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-40226.05386841809</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-40226.05386841809</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-39468.98066841809</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-39468.98066841809</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-39468.98066841809</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-39502.72676841808</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-39138.78676841808</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-39138.78676841808</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-39052.04676841808</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-39052.04676841808</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-39016.35076841808</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-39110.56066841808</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-39216.43616841808</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-39145.31466841808</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-39132.54466841809</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-39133.54466841809</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-39134.54466841809</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-39404.54466841809</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-39405.99466841808</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-39352.00466841809</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-39232.51436841809</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-41330.05616841809</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-41330.05616841809</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-41295.04036841809</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-40488.06636841808</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-36697.80136841808</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-36697.80136841808</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-37675.50006841808</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-37678.05006841809</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-37678.05006841809</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-29 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 WTC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>6630.18350290154</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>8749.07600290154</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>10564.21448108729</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>11141.29558108728</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -626,7 +626,7 @@
         <v>10934.46898108728</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>10196.31288108728</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>10196.31288108728</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>13765.15788108728</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>14689.20148108728</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -808,7 +808,7 @@
         <v>13456.70958108728</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -860,7 +860,7 @@
         <v>12216.77238108728</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>8112.110081087282</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>10665.65419775395</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>7002.601806087282</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>4719.901713490827</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>4719.901713490827</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>4336.096213490827</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>4336.096213490827</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>3032.294413490827</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>940.3331134908267</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-220.3349865091734</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>2215.252413490827</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>2268.592313490827</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>2547.938813490827</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>2295.135413490827</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>3082.950513490827</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>2251.812113490827</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>5495.656013490827</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>4531.565313490827</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>5551.692013490827</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>5576.692013490827</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>5093.692013490827</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>5093.692013490827</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>5103.692013490827</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>5053.692013490827</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>5474.692013490827</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>5439.692013490827</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>5448.692013490827</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>5014.769113490827</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>4806.366813490828</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>6072.658213490828</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>1408.149313490828</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>2842.195313490828</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>1971.204913490827</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>2900.576513490827</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>1959.354842062256</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>841.9470420622561</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-450.3237579377439</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-2596.685057937744</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-6872.762557937744</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-6871.762557937744</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-5871.762557937744</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-5942.876257937744</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-6840.099757937744</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-6942.451857937744</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-6942.451857937744</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-4076.149957937744</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-4077.149957937744</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-4078.149957937744</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-4039.116257937744</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-4040.116257937744</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-4046.104257937744</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-4046.104257937744</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-4398.350557937743</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-4410.000557937743</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-4417.880557937743</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-15976.68826841809</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-14942.81826841809</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-14711.15716841809</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-16119.07336841809</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-15066.81076841809</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-15066.81076841809</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-13902.39336841809</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-14647.77706841809</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-14647.77706841809</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-13653.71706841809</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-14197.71706841809</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-15579.80446841809</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-34210.62016841809</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-33977.95016841809</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-34335.51556841809</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-34277.41556841809</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-34026.46646841809</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-33944.71716841809</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-33948.55176841809</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-42680.12406841809</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-43107.02546841809</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-43107.02546841809</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-42329.31166841809</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-42323.51166841809</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-41690.32346841809</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-41690.32346841809</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-39923.89556841809</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-39179.29616841809</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-40316.96816841809</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-38572.66896841809</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-37991.45876841809</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-37563.84186841809</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-37527.54066841809</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-39267.66266841809</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-39277.75026841809</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-39243.99036841809</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-39684.38086841809</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-37729.38086841809</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-37685.27096841809</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-39347.08676841808</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-38049.26056841808</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-38049.26056841808</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-38049.26056841808</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-38015.56056841808</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-39408.44206841809</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-40351.44206841809</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-38338.34656841808</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-38338.34656841808</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-40038.63186841809</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-40056.84396841808</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-41082.51766841808</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-39932.47386841808</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-40984.15386841809</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-40915.72896841809</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-38142.24016841809</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-36505.68596841809</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-36505.68596841809</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-36392.38596841809</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-38265.36086841809</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-39373.74826841809</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-40722.15146841809</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-40758.72886841809</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-40032.76896841809</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-40032.76896841809</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-40032.76896841809</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-40226.05386841809</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-40226.05386841809</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-39468.98066841809</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-39468.98066841809</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-39468.98066841809</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-39502.72676841808</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-39138.78676841808</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-39138.78676841808</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-39052.04676841808</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-39052.04676841808</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-39016.35076841808</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-39110.56066841808</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-39216.43616841808</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-39145.31466841808</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-39132.54466841809</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-39133.54466841809</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-39134.54466841809</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-39404.54466841809</v>
       </c>
       <c r="H388">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-39405.99466841808</v>
       </c>
       <c r="H389">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-39352.00466841809</v>
       </c>
       <c r="H390">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-39232.51436841809</v>
       </c>
       <c r="H391">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-41330.05616841809</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-41330.05616841809</v>
       </c>
       <c r="H393">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-41295.04036841809</v>
       </c>
       <c r="H394">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-40488.06636841808</v>
       </c>
       <c r="H395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-36697.80136841808</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-36697.80136841808</v>
       </c>
       <c r="H397">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-37675.50006841808</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-37678.05006841809</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-37678.05006841809</v>
       </c>
       <c r="H400">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
